--- a/inputs/data_raw/Data_CalPERS_Demographics_20180630.xlsx
+++ b/inputs/data_raw/Data_CalPERS_Demographics_20180630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_CalPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F315B4-7253-4F55-B106-1A74EA045870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4FEDA-9FC1-4490-853B-81B80D8236DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc_t1" sheetId="19" r:id="rId1"/>
@@ -44,10 +44,18 @@
     <sheet name="Retirees_poff_raw" sheetId="17" r:id="rId29"/>
     <sheet name="Retirees_chp_raw" sheetId="18" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1181,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,6 +1586,8 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2449,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB403699-3710-4596-97B0-B33CB2C2CC4F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6128,13 +6138,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -6483,7 +6496,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6526,7 @@
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
@@ -6542,8 +6555,22 @@
         <v>12020239795</v>
       </c>
       <c r="K18" s="19"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="134">
+        <f>J18</f>
+        <v>12020239795</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>231343658</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>699252899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
         <v>24</v>
       </c>
@@ -6556,8 +6583,12 @@
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="135">
+        <f>SUM(M18:M20)</f>
+        <v>12950836352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
         <v>23</v>
       </c>
@@ -6571,7 +6602,7 @@
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="40" t="s">
         <v>2</v>
@@ -6587,7 +6618,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="24" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6644,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -6641,7 +6672,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
@@ -6669,7 +6700,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
@@ -6697,7 +6728,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
@@ -6725,7 +6756,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -6753,7 +6784,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
@@ -6781,7 +6812,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
@@ -6809,7 +6840,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -6946,7 +6977,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,7 +7777,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H32"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11439,7 +11470,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14360,13 +14391,17 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4C9177-2138-41DF-8C11-14495EB1E57D}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -15260,7 +15295,7 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -15293,7 +15328,7 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -15326,7 +15361,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
@@ -15359,7 +15394,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -15392,7 +15427,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
@@ -15425,7 +15460,7 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
@@ -15457,6 +15492,40 @@
       <c r="N38" s="55"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
+      <c r="R38" s="134">
+        <f>C38+K38</f>
+        <v>5667917778</v>
+      </c>
+      <c r="T38" s="134">
+        <f>D38+E38</f>
+        <v>185149639</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>38329742</v>
+      </c>
+      <c r="T39">
+        <v>22771921</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>174547481</v>
+      </c>
+      <c r="T40">
+        <v>17645281</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R41" s="134">
+        <f>SUM(R38:R40)</f>
+        <v>5880795001</v>
+      </c>
+      <c r="T41" s="135">
+        <f>SUM(T38:T40)</f>
+        <v>225566841</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="170">
@@ -15642,11 +15711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D81066-BD50-457B-BD75-87C93A402969}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:X32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -17037,7 +17110,7 @@
         <v>992871</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -17071,7 +17144,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -17105,7 +17178,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
@@ -17139,7 +17212,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -17173,7 +17246,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
@@ -17207,7 +17280,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
@@ -17240,6 +17313,14 @@
       <c r="O38" s="55"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
+      <c r="R38" s="134">
+        <f>C38+L38</f>
+        <v>38329742</v>
+      </c>
+      <c r="T38" s="134">
+        <f>SUM(D38:G38)</f>
+        <v>22771921</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="200">
@@ -17453,13 +17534,17 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CA57CA-549D-4B8A-A332-35577EAA6843}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:Q32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -18647,7 +18732,7 @@
         <v>3705291</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -18674,7 +18759,7 @@
       </c>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -18701,7 +18786,7 @@
       </c>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
@@ -18728,7 +18813,7 @@
       </c>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -18755,7 +18840,7 @@
       </c>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
@@ -18782,7 +18867,7 @@
       </c>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
@@ -18808,6 +18893,16 @@
         <v>193906387</v>
       </c>
       <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L39" s="134">
+        <f>C38+H38</f>
+        <v>174547481</v>
+      </c>
+      <c r="N39" s="134">
+        <f>SUM(D38:E38)</f>
+        <v>17645281</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22080,7 +22175,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26672,8 +26767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
